--- a/biology/Médecine/Capillaroscopie/Capillaroscopie.xlsx
+++ b/biology/Médecine/Capillaroscopie/Capillaroscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capillaroscopie est un examen pratiqué, dans un cabinet médical, par un angiologue (médecin spécialiste des pathologies de la circulation sanguine et lymphatique).
 Cet examen consiste à observer la peau du rebord de l'ongle. Ainsi, il permet d'étudier l'aspect des capillaires sanguins (petites artères microscopiques) du pourtour de l'ongle.
@@ -512,7 +524,9 @@
           <t>Déroulement de l'examen</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un examen simple et non douloureux.
 Le patient s'assoit. Le médecin nettoie l'un des ongles avec une solution antiseptique. Puis, il dépose une goutte d'huile sur l'ongle et le place sous une plaque lumineuse. Il examine l'ongle sous un microscope appelé capillaroscope. Il fait de même pour chacun des ongles des doigts de la main.
@@ -546,7 +560,9 @@
           <t>Précautions particulières avant ou après l'examen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mains doivent être propres, les pieds aussi. Dans certaines conditions, le médecin examine le gros orteil.
 </t>
@@ -577,7 +593,9 @@
           <t>But de l'examen</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet examen est essentiellement indiqué pour le diagnostic des acrosyndromes (trouble de la circulation des extrémités des doigts, des pieds et autres extrémités de l'organisme).
 Il permet de diagnostiquer les phénomènes de Raynaud : syndrome de Raynaud et maladie de Raynaud.
